--- a/NopCommerce/Data/Book1.xlsx
+++ b/NopCommerce/Data/Book1.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Norhan.Medhat\source\repos\Framework\NopCommerce\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{732F4B46-61C7-446C-864B-A93F9C291E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0C4A46-7E4D-4999-A912-CD8122B8EC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9C270AEA-C7EF-403F-A843-F9D15D40B61C}"/>
+    <workbookView xWindow="2964" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{9C270AEA-C7EF-403F-A843-F9D15D40B61C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -427,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8DA540-F070-4C99-8A2A-D8C2E2C95666}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,12 +496,14 @@
       <c r="E3">
         <v>349</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F2:F3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>